--- a/Phase 1 Design, Kinematics & Core Theory (The Digital Foundation)/1 Conceptual Design & CAD/Solidwork FIles/Joint02/Nuts And Screw/Base Nuts And screws.xlsx
+++ b/Phase 1 Design, Kinematics & Core Theory (The Digital Foundation)/1 Conceptual Design & CAD/Solidwork FIles/Joint02/Nuts And Screw/Base Nuts And screws.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Engineering\Robotics\Kuka Project\GIthub_Repos\Phase 1 Design, Kinematics &amp; Core Theory (The Digital Foundation)\1 Conceptual Design &amp; CAD\Solidwork FIles\Joint01\Nuts And Screw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E26AFD-382A-4179-8027-3ED86E31499D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11D5292-80C7-4207-80B7-290FD64FA3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="4560" windowWidth="21600" windowHeight="11295" xr2:uid="{684C28C4-73AD-4F45-8D4B-F2B514867060}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{684C28C4-73AD-4F45-8D4B-F2B514867060}"/>
   </bookViews>
   <sheets>
     <sheet name="New" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>Part</t>
   </si>
@@ -151,13 +151,43 @@
   </si>
   <si>
     <t>https://ampere-electronics.com/product/m5x30-hex-socket-head-screw/</t>
+  </si>
+  <si>
+    <t>Body - Cover</t>
+  </si>
+  <si>
+    <t>Screw Diameter</t>
+  </si>
+  <si>
+    <t>Spacer - Body</t>
+  </si>
+  <si>
+    <t>Motor - Space</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>https://ampere-electronics.com/product/m3x20-hex-socket-head-screw/</t>
+  </si>
+  <si>
+    <t>Haymsek el motor bel spacer bta3ha haydkhol 9 fel motor we 8 fel spacer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spacer 15 mm 6 mm body </t>
+  </si>
+  <si>
+    <t>https://ampere-electronics.com/product/m4x25-hex-socket-head-screw/</t>
+  </si>
+  <si>
+    <t>Idler Compound</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,8 +208,35 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,6 +246,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,10 +317,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -271,6 +335,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -280,8 +362,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -614,23 +706,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4D1F97-13C8-4ADA-A182-566C569B2CDE}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="27.140625" style="2" customWidth="1"/>
-    <col min="3" max="8" width="18.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="6" width="18.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3" style="9" customWidth="1"/>
+    <col min="8" max="10" width="18.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -649,21 +743,25 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -673,7 +771,7 @@
         <v>34</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
@@ -681,97 +779,281 @@
       <c r="F2" s="1">
         <v>16</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="16"/>
+      <c r="H2" s="1">
         <v>5</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1">
         <v>8.5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="3"/>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12"/>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="1">
+        <v>40</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1">
         <v>30</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G4" s="16"/>
+      <c r="H4" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I4" s="1">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1">
         <v>8.5</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:12" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1">
+        <v>20</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="14">
+        <v>20</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="9" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D8" s="1">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="1">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="J8" s="1">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I9" s="1">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1">
         <v>8</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1">
+        <v>8</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A2:A6"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J5" r:id="rId1" xr:uid="{7D176AB3-75EE-45EC-B3F8-896DD8EADD1B}"/>
+    <hyperlink ref="L8" r:id="rId1" xr:uid="{7D176AB3-75EE-45EC-B3F8-896DD8EADD1B}"/>
+    <hyperlink ref="L5" r:id="rId2" xr:uid="{4C66E884-8302-4982-8992-F140BE3D0961}"/>
+    <hyperlink ref="L6" r:id="rId3" xr:uid="{BE303296-4D17-483D-A630-802EEB55B62E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -817,7 +1099,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -844,7 +1126,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -869,7 +1151,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
